--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F7_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F7_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F7_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F7_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>281381188.0030551</v>
       </c>
       <c r="AZ2" t="n">
-        <v>410394233.9902047</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>272513414.7677614</v>
+        <v>269755798.3833126</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>154230091.0982733</v>
@@ -1011,15 +1002,12 @@
         <v>200623275.8452342</v>
       </c>
       <c r="AZ3" t="n">
-        <v>214966708.2754672</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>152578499.0484425</v>
+        <v>151330734.863902</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>9565907.809681229</v>
@@ -1027,11 +1015,15 @@
       <c r="C4" t="n">
         <v>17563615.86756389</v>
       </c>
-      <c r="D4" t="s"/>
+      <c r="D4" t="n">
+        <v>17196626.0776431</v>
+      </c>
       <c r="E4" t="n">
         <v>13980621.20525155</v>
       </c>
-      <c r="F4" t="s"/>
+      <c r="F4" t="n">
+        <v>44169050.81385335</v>
+      </c>
       <c r="G4" t="n">
         <v>35869922.35819016</v>
       </c>
@@ -1044,31 +1036,45 @@
       <c r="J4" t="n">
         <v>24289725.54879173</v>
       </c>
-      <c r="K4" t="s"/>
+      <c r="K4" t="n">
+        <v>46222134.46453917</v>
+      </c>
       <c r="L4" t="n">
         <v>15829461.26824684</v>
       </c>
       <c r="M4" t="n">
         <v>31829060.91941285</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="N4" t="n">
+        <v>22110853.09670983</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16853337.15759022</v>
+      </c>
       <c r="P4" t="n">
         <v>33374678.28442026</v>
       </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>45884246.92021006</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29090280.11767819</v>
+      </c>
       <c r="S4" t="n">
         <v>47930428.37924799</v>
       </c>
-      <c r="T4" t="s"/>
+      <c r="T4" t="n">
+        <v>23491623.80164483</v>
+      </c>
       <c r="U4" t="n">
         <v>24585943.85488442</v>
       </c>
       <c r="V4" t="n">
         <v>43855634.14036578</v>
       </c>
-      <c r="W4" t="s"/>
+      <c r="W4" t="n">
+        <v>21560298.93492941</v>
+      </c>
       <c r="X4" t="n">
         <v>23400284.18840597</v>
       </c>
@@ -1087,11 +1093,15 @@
       <c r="AC4" t="n">
         <v>15423110.11954413</v>
       </c>
-      <c r="AD4" t="s"/>
+      <c r="AD4" t="n">
+        <v>15625037.49522346</v>
+      </c>
       <c r="AE4" t="n">
         <v>27575869.73487747</v>
       </c>
-      <c r="AF4" t="s"/>
+      <c r="AF4" t="n">
+        <v>42348051.22372153</v>
+      </c>
       <c r="AG4" t="n">
         <v>32875079.21265467</v>
       </c>
@@ -1110,8 +1120,12 @@
       <c r="AL4" t="n">
         <v>21329107.45115936</v>
       </c>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
+      <c r="AM4" t="n">
+        <v>13586013.95535083</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>20092668.21683043</v>
+      </c>
       <c r="AO4" t="n">
         <v>45155588.5209365</v>
       </c>
@@ -1130,656 +1144,1603 @@
       <c r="AT4" t="n">
         <v>27091159.05378644</v>
       </c>
-      <c r="AU4" t="s"/>
+      <c r="AU4" t="n">
+        <v>25177632.52013668</v>
+      </c>
       <c r="AV4" t="n">
         <v>18868415.86781197</v>
       </c>
       <c r="AW4" t="n">
         <v>35959985.88441833</v>
       </c>
-      <c r="AX4" t="s"/>
+      <c r="AX4" t="n">
+        <v>10757602.73456402</v>
+      </c>
       <c r="AY4" t="n">
         <v>31143122.6639023</v>
       </c>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="n">
-        <v>23726758.07970802</v>
+      <c r="AZ4" t="n">
+        <v>24492039.80640812</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>257</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>1070548.48034827</v>
       </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+      <c r="C5" t="n">
+        <v>1227907.68483916</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1454155.29326579</v>
+      </c>
+      <c r="E5" t="n">
+        <v>310140.77842143</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2083052.41325028</v>
+      </c>
       <c r="G5" t="n">
         <v>1574420.52282184</v>
       </c>
       <c r="H5" t="n">
         <v>1899080.7359003</v>
       </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="I5" t="n">
+        <v>1395673.72097216</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1513437.27379942</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3759399.18409767</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1748992.59552352</v>
+      </c>
+      <c r="M5" t="n">
+        <v>631975.92741423</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2726528.13070663</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1176626.41541821</v>
+      </c>
+      <c r="P5" t="n">
+        <v>839286.05990527</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1699399.38334135</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1607622.55913296</v>
+      </c>
+      <c r="S5" t="n">
+        <v>734398.98965821</v>
+      </c>
+      <c r="T5" t="n">
+        <v>601036.11353631</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1298512.13563086</v>
+      </c>
       <c r="V5" t="n">
         <v>2787598.02108391</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="n">
+        <v>3535741.80671178</v>
+      </c>
+      <c r="X5" t="n">
+        <v>892158.15909778</v>
+      </c>
       <c r="Y5" t="n">
         <v>2247729.71703153</v>
       </c>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
+      <c r="Z5" t="n">
+        <v>1360726.05374343</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>514565.6926291</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2313468.53990728</v>
+      </c>
       <c r="AC5" t="n">
         <v>1139857.63858549</v>
       </c>
-      <c r="AD5" t="s"/>
+      <c r="AD5" t="n">
+        <v>1958483.58393603</v>
+      </c>
       <c r="AE5" t="n">
         <v>1239095.35159604</v>
       </c>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
+      <c r="AF5" t="n">
+        <v>1586752.78433765</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>849251.90445089</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1279172.65231009</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>733438.86727033</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>580642.96539743</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1464640.0055877</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3419067.34181198</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>272797.12883279</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1611556.97515694</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1050908.12857704</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3241503.7230283</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1037023.55764995</v>
+      </c>
       <c r="AR5" t="n">
         <v>1437997.32042745</v>
       </c>
-      <c r="AS5" t="s"/>
+      <c r="AS5" t="n">
+        <v>2084883.594382</v>
+      </c>
       <c r="AT5" t="n">
         <v>2042538.34752848</v>
       </c>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1715429.57059148</v>
+      <c r="AU5" t="n">
+        <v>1140139.95626409</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3945450.68051112</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2411528.80500744</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1177379.32226733</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1149784.27188409</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1597161.54589979</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>515</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>567877.94404942</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
+      <c r="C6" t="n">
+        <v>357553.49046983</v>
+      </c>
+      <c r="D6" t="n">
+        <v>407320.93250376</v>
+      </c>
+      <c r="E6" t="n">
+        <v>128425.76007597</v>
+      </c>
+      <c r="F6" t="n">
+        <v>719278.68856195</v>
+      </c>
+      <c r="G6" t="n">
+        <v>525366.4729027</v>
+      </c>
+      <c r="H6" t="n">
+        <v>297723.10591508</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1068070.29393567</v>
+      </c>
+      <c r="J6" t="n">
+        <v>496561.32104066</v>
+      </c>
+      <c r="K6" t="n">
+        <v>861215.03226429</v>
+      </c>
       <c r="L6" t="n">
         <v>399448.38528782</v>
       </c>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>483663.16466862</v>
+      <c r="M6" t="n">
+        <v>393546.69272063</v>
+      </c>
+      <c r="N6" t="n">
+        <v>497254.4297201</v>
+      </c>
+      <c r="O6" t="n">
+        <v>198941.12901622</v>
+      </c>
+      <c r="P6" t="n">
+        <v>522797.1242391</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>956886.90875123</v>
+      </c>
+      <c r="R6" t="n">
+        <v>445665.37377394</v>
+      </c>
+      <c r="S6" t="n">
+        <v>210953.220707</v>
+      </c>
+      <c r="T6" t="n">
+        <v>460592.57281201</v>
+      </c>
+      <c r="U6" t="n">
+        <v>383971.77233259</v>
+      </c>
+      <c r="V6" t="n">
+        <v>318021.21128467</v>
+      </c>
+      <c r="W6" t="n">
+        <v>458179.8985976</v>
+      </c>
+      <c r="X6" t="n">
+        <v>283518.83660066</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>598345.37955133</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>511815.19842471</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>416571.88681751</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>727842.3591587601</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>211219.33041048</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>312219.51217356</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>481478.22548486</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>540855.3968130701</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>399393.77288652</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>385754.91903144</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>308289.47568923</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>401834.98751248</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>317475.47645981</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>118107.27455761</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>212403.11018393</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>851670.44370861</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>222008.23710754</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>266436.5378045</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>441471.40077181</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>310682.82179996</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>314104.83396029</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>881776.33997101</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>562485.2736502</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>664943.7941500799</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>495684.41477568</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>337496.71548274</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>693845.6680267201</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>458907.66767855</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>772</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>448202.77464954</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
+      <c r="C7" t="n">
+        <v>353930.48351368</v>
+      </c>
+      <c r="D7" t="n">
+        <v>231482.63457654</v>
+      </c>
+      <c r="E7" t="n">
+        <v>88805.1918893</v>
+      </c>
+      <c r="F7" t="n">
+        <v>374502.73157431</v>
+      </c>
+      <c r="G7" t="n">
+        <v>256994.04171129</v>
+      </c>
+      <c r="H7" t="n">
+        <v>121760.45065623</v>
+      </c>
+      <c r="I7" t="n">
+        <v>201071.10076994</v>
+      </c>
+      <c r="J7" t="n">
+        <v>398900.04187703</v>
+      </c>
+      <c r="K7" t="n">
+        <v>219486.42075747</v>
+      </c>
       <c r="L7" t="n">
         <v>399448.38528782</v>
       </c>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="M7" t="n">
+        <v>392879.68504144</v>
+      </c>
+      <c r="N7" t="n">
+        <v>156877.79014282</v>
+      </c>
+      <c r="O7" t="n">
+        <v>111509.30698766</v>
+      </c>
+      <c r="P7" t="n">
+        <v>289764.69173217</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>230484.3515086</v>
+      </c>
+      <c r="R7" t="n">
+        <v>240278.43113451</v>
+      </c>
+      <c r="S7" t="n">
+        <v>68648.21658778</v>
+      </c>
+      <c r="T7" t="n">
+        <v>267957.24564792</v>
+      </c>
+      <c r="U7" t="n">
+        <v>313482.26042108</v>
+      </c>
       <c r="V7" t="n">
         <v>110585.14393534</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>319412.1012909</v>
+      <c r="W7" t="n">
+        <v>237444.37199858</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28010.40500355</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>142670.51630865</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>222281.02257709</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>230206.32153861</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>83047.92052725</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>59763.54203502</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>284946.3172478</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>185417.36341773</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>356335.41131762</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251712.30635908</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>195729.11972431</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>304788.86220045</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>150561.4646952</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>105264.01210823</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>85579.62479697001</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>178896.43393201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>368624.45246739</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>102308.19761989</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>190535.60368447</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>206810.41582426</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>299883.59497661</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>243093.50796798</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>523416.67997307</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>255383.75766252</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>499295.43072039</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>446797.26069428</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>327629.82095241</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>295311.34606534</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>242775.92929598</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1030</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>108851.5330106</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="C8" t="n">
+        <v>110523.37701416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220604.51604055</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25815.21049388</v>
+      </c>
+      <c r="F8" t="n">
+        <v>115064.97185009</v>
+      </c>
+      <c r="G8" t="n">
+        <v>134704.59030473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>76928.53933493</v>
+      </c>
+      <c r="I8" t="n">
+        <v>120352.94895566</v>
+      </c>
+      <c r="J8" t="n">
+        <v>288887.0942977</v>
+      </c>
+      <c r="K8" t="n">
+        <v>146686.27079032</v>
+      </c>
       <c r="L8" t="n">
         <v>119538.08247602</v>
       </c>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>114194.80774331</v>
+      <c r="M8" t="n">
+        <v>162455.17031689</v>
+      </c>
+      <c r="N8" t="n">
+        <v>126498.17585376</v>
+      </c>
+      <c r="O8" t="n">
+        <v>111509.30698766</v>
+      </c>
+      <c r="P8" t="n">
+        <v>187985.9638377</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>165472.30167943</v>
+      </c>
+      <c r="R8" t="n">
+        <v>178891.61147321</v>
+      </c>
+      <c r="S8" t="n">
+        <v>42183.52672032</v>
+      </c>
+      <c r="T8" t="n">
+        <v>146939.10617136</v>
+      </c>
+      <c r="U8" t="n">
+        <v>153234.98787889</v>
+      </c>
+      <c r="V8" t="n">
+        <v>71669.55163900999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>104510.06341041</v>
+      </c>
+      <c r="X8" t="n">
+        <v>26418.84620516</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>142670.51630865</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>143585.04530581</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>197701.45711062</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>83047.92052725</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>42433.75631913</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>262999.74811269</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>154285.679176</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>173993.04639064</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>166236.03732576</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>139733.53470936</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>162748.40224221</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>138991.52668509</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>74160.89814529</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>66033.36768575999</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>101417.88975742</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>34932.51027004</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>45061.39254092</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>94627.37443272</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>155192.68264466</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>293107.648271</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>102247.83408591</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>269536.71071093</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>146002.22672937</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>208131.5973316</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>95839.56880507999</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>163733.49645891</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>174824.81185193</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>135580.04853354</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1287</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>99389.96781436</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>99389.96781436</v>
+      <c r="C9" t="n">
+        <v>88636.92972307</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95027.78864791</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23785.73980492</v>
+      </c>
+      <c r="F9" t="n">
+        <v>114833.32251566</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51091.87199644</v>
+      </c>
+      <c r="H9" t="n">
+        <v>70594.33733311</v>
+      </c>
+      <c r="I9" t="n">
+        <v>115331.54121025</v>
+      </c>
+      <c r="J9" t="n">
+        <v>240047.98963094</v>
+      </c>
+      <c r="K9" t="n">
+        <v>96753.83242568</v>
+      </c>
+      <c r="L9" t="n">
+        <v>99327.47081388001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>56237.96558759</v>
+      </c>
+      <c r="N9" t="n">
+        <v>125351.42610087</v>
+      </c>
+      <c r="O9" t="n">
+        <v>73040.46056866</v>
+      </c>
+      <c r="P9" t="n">
+        <v>87902.63905391</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>98348.30355574</v>
+      </c>
+      <c r="R9" t="n">
+        <v>137204.20078647</v>
+      </c>
+      <c r="S9" t="n">
+        <v>41862.24792253</v>
+      </c>
+      <c r="T9" t="n">
+        <v>63139.72052918</v>
+      </c>
+      <c r="U9" t="n">
+        <v>64806.82373307</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23796.74714313</v>
+      </c>
+      <c r="W9" t="n">
+        <v>102901.27066772</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14611.07871541</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>106049.64773065</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>104165.35502404</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>197701.45711062</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>67825.21949955</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>33054.60114574</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>191936.61029314</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>78195.33946507001</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>90998.49465215</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>104384.92298921</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>56830.38567959</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>92120.89796386</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>112722.70025359</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>73368.0503479</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>61669.19286108</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60039.53250582</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>14383.74272532</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13023.22655966</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34576.59204651</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>73127.68432062</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>123725.83621408</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>80110.61831997</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>136092.8817714</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>98450.81381823</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81449.02831763</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>74602.60789003001</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>112495.85292485</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>80467.27877985001</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>86751.84494980999</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1544</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>70280.36210744</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>70280.36210744</v>
+      <c r="C10" t="n">
+        <v>61841.4978044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71896.00798427001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15046.94163373</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80869.71786116</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51091.87199644</v>
+      </c>
+      <c r="H10" t="n">
+        <v>44618.86194483</v>
+      </c>
+      <c r="I10" t="n">
+        <v>104664.13013741</v>
+      </c>
+      <c r="J10" t="n">
+        <v>138248.20923211</v>
+      </c>
+      <c r="K10" t="n">
+        <v>86628.06090806</v>
+      </c>
+      <c r="L10" t="n">
+        <v>69803.84316396</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32883.43227535</v>
+      </c>
+      <c r="N10" t="n">
+        <v>74521.09705395</v>
+      </c>
+      <c r="O10" t="n">
+        <v>29714.61544569</v>
+      </c>
+      <c r="P10" t="n">
+        <v>57556.34921571</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>73170.01173219</v>
+      </c>
+      <c r="R10" t="n">
+        <v>110933.15907006</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28149.879246</v>
+      </c>
+      <c r="T10" t="n">
+        <v>39768.38602698</v>
+      </c>
+      <c r="U10" t="n">
+        <v>33871.55420363</v>
+      </c>
+      <c r="V10" t="n">
+        <v>23796.74714313</v>
+      </c>
+      <c r="W10" t="n">
+        <v>65380.79056559</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13404.24869585</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>50483.9655737</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>75718.9861755</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15507.43871686</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>47123.32962173</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>30630.41029099</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>151060.44453323</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>56270.57999796</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>89765.9158491</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>71662.90730377</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>54299.45864158</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>83317.81836755</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>57762.28387044</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>45125.22909041</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>49619.73269245</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>42504.75380695</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>14044.44184201</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13023.22655966</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34576.59204651</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29276.48312958</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>107845.21516557</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>74013.63043886</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>31991.68488487</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>81043.67473723</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>70671.69155413999</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>64054.06292951</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>83028.70334522999</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>79710.30174893</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>59645.45476724</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1802</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>70280.36210744</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+      <c r="C11" t="n">
+        <v>11447.91707602</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27462.77293099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11285.87986706</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54403.84946381</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49679.40130982</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12256.12268016</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67072.46289656</v>
+      </c>
+      <c r="J11" t="n">
+        <v>60276.26125864</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54727.39609713</v>
+      </c>
       <c r="L11" t="n">
         <v>69803.84316396</v>
       </c>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>70042.10263569999</v>
+      <c r="M11" t="n">
+        <v>14005.09551931</v>
+      </c>
+      <c r="N11" t="n">
+        <v>72480.11852552</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27006.03342725</v>
+      </c>
+      <c r="P11" t="n">
+        <v>41899.40162243</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>72332.98257228</v>
+      </c>
+      <c r="R11" t="n">
+        <v>56037.21756073</v>
+      </c>
+      <c r="S11" t="n">
+        <v>27323.92098247</v>
+      </c>
+      <c r="T11" t="n">
+        <v>33616.59620923</v>
+      </c>
+      <c r="U11" t="n">
+        <v>19605.46060927</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22913.13738455</v>
+      </c>
+      <c r="W11" t="n">
+        <v>37132.00039218</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13404.24869585</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>30173.13925097</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>67809.00870099</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10146.69544394</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>39868.11146198</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>29652.12862942</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20215.64112416</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38200.19442334</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>58066.26482096</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>60711.5739415</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>27798.97480104</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>25182.39926715</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26010.22708532</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>28321.18407736</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35856.84950515</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9813.637437629999</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>10899.85007963</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13023.22655966</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34576.59204651</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>10115.19460711</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>18055.02056254</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>9190.5934989</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>31989.43524421</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>19343.4773626</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>35656.79484289</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>63689.47066998</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>47677.66204127</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>79592.92214231</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>36161.77503962</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2059</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>34179.28060207</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>34179.28060207</v>
+      <c r="C12" t="n">
+        <v>2667.86879509</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16959.15045553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7976.58044632</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30128.5730199</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21489.14605341</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11583.29193589</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22330.01192257</v>
+      </c>
+      <c r="J12" t="n">
+        <v>39820.27171736</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31349.74636766</v>
+      </c>
+      <c r="L12" t="n">
+        <v>42663.1312205</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9507.513903970001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>40457.63081659</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18735.48901869</v>
+      </c>
+      <c r="P12" t="n">
+        <v>22203.7153615</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>52681.14525726</v>
+      </c>
+      <c r="R12" t="n">
+        <v>32798.90344001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13672.68597181</v>
+      </c>
+      <c r="T12" t="n">
+        <v>33571.554698</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12011.66315548</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19829.64281204</v>
+      </c>
+      <c r="W12" t="n">
+        <v>37132.00039218</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13056.08542233</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>22338.7931826</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>18906.45074313</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8905.7519553</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>28573.2515059</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>29566.61200873</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15805.48086589</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14801.27628115</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>24325.8233409</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>36469.21103735</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24509.31314192</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6872.69486671</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21707.93664868</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>20964.19802997</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32062.65941712</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>9724.80880225</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10213.14137806</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8578.460927689999</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34576.59204651</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>9499.93998433</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>13389.5974165</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>8833.143701180001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>31812.21928681</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>19263.47012193</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>24432.29576466</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>27064.80392009</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>28119.16091984</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>37913.9230888</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>22720.7218634</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2317</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>26188.11112474</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>26188.11112474</v>
+      <c r="C13" t="n">
+        <v>2667.86879509</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16959.15045553</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7462.75056304</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24146.85784602</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10947.52474924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8985.51862354</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22330.01192257</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32304.88686618</v>
+      </c>
+      <c r="K13" t="n">
+        <v>29698.1400356</v>
+      </c>
+      <c r="L13" t="n">
+        <v>41455.10630621</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7867.78168705</v>
+      </c>
+      <c r="N13" t="n">
+        <v>38569.89283122</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11183.23500149</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15838.47441031</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28502.76914421</v>
+      </c>
+      <c r="R13" t="n">
+        <v>25559.30720816</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5716.017715</v>
+      </c>
+      <c r="T13" t="n">
+        <v>23083.04428316</v>
+      </c>
+      <c r="U13" t="n">
+        <v>12004.4963333</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10253.13043268</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9766.859257669999</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8115.15765527</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>19706.89499022</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18340.25502496</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8519.67509884</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20084.84543699</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>22786.4251712</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9229.43007536</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11014.52688293</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8752.4219466</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20085.50476424</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12587.10515486</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6642.26853068</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9080.289002899999</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>14890.12518136</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29979.3964726</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>8256.723679229999</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6550.12353273</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8578.460927689999</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21490.11446673</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>9494.256523620001</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>13049.85078306</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4078.7236293</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>22191.00595174</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1290.08341577</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>13581.56224529</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>25113.79293622</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>18859.98463529</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>30238.82751688</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>16281.57534449</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2574</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>19521.8270578</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>19521.8270578</v>
+      <c r="C14" t="n">
+        <v>2667.86879509</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15471.01805752</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4971.04820985</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6455.06281342</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10825.649881</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7188.88868691</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9060.25399404</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13464.36399071</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27934.10968601</v>
+      </c>
+      <c r="L14" t="n">
+        <v>41308.53528325</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4092.73198258</v>
+      </c>
+      <c r="N14" t="n">
+        <v>28547.6682238</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7346.2723421</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14414.54084861</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>16626.83892357</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8086.67268688</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5716.017715</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10094.35043725</v>
+      </c>
+      <c r="U14" t="n">
+        <v>11611.01382565</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10077.36052286</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8459.218179789999</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6321.79905619</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>18234.74860769</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17437.00773695</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7716.26217469</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19430.07506638</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>22100.26514496</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5771.46207741</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>9391.69219455</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8340.83231494</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8978.24983323</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11727.7901852</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6642.26853068</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9056.379727969999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>8510.232034570001</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26547.51025941</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4871.9873689</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5054.5336123</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8312.978929360001</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17219.41173876</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>6267.74636364</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>10450.41458908</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3846.40347197</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>10624.5165643</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>86.24752092999999</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>13285.58435601</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>14099.91320885</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>17354.90884276</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9847.509593389999</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>11829.40086498</v>
       </c>
     </row>
   </sheetData>
